--- a/analysis-R/data/post.xlsx
+++ b/analysis-R/data/post.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakotondravony\Desktop\WPI\chemistry-ar\analysis-chemistry-ar\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakotondravony\Desktop\WPI\chemistry-ar\analysis-R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AA8F0D-1A0A-4528-A49C-8F8DF008EEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E13C2-3754-4FD7-919E-C3391F7544BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0466F18B-C820-4997-A4D5-5F41E71B2AC2}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>post2_learning_experience</t>
   </si>
   <si>
-    <t>post3_recall_fc_proc</t>
-  </si>
-  <si>
     <t>post8_overall_training</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>oldDescription</t>
+  </si>
+  <si>
+    <t>post3_vs_pre6_recall_fc_proc</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
